--- a/data rule domain.xlsx
+++ b/data rule domain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@DOKUMEN\KULIAH\1. Semesteran\Smt 7\2. Sistem Pakar\Project-Sistem-Pakar-Optimasi\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@DOKUMEN\KULIAH\1. Semesteran\Smt 7\2. Sistem Pakar\Project-Sistem-Pakar-Optimasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B101386-8A5B-40DC-B805-F120EA6DC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399C0F1-BAA4-4ECA-B52D-F6EC10C5FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="193">
   <si>
     <t>no</t>
   </si>
@@ -504,12 +504,123 @@
   <si>
     <t>JAWAB SOAL 9</t>
   </si>
+  <si>
+    <t>wb_kecil_a</t>
+  </si>
+  <si>
+    <t>wb_kecil_a,</t>
+  </si>
+  <si>
+    <t>wb_kecil_b</t>
+  </si>
+  <si>
+    <t>wb_sedang_a</t>
+  </si>
+  <si>
+    <t>wb_kecil_c</t>
+  </si>
+  <si>
+    <t>wb_sedang_b</t>
+  </si>
+  <si>
+    <t>wb_sedang_c</t>
+  </si>
+  <si>
+    <t>wb_besar_a</t>
+  </si>
+  <si>
+    <t>wb_besar_b,</t>
+  </si>
+  <si>
+    <t>wb_besar_c</t>
+  </si>
+  <si>
+    <t>WAKTU BELAJAR</t>
+  </si>
+  <si>
+    <t>LAMA JAWAB SOAL</t>
+  </si>
+  <si>
+    <t>NILAI</t>
+  </si>
+  <si>
+    <t>ljs_kecil_a,</t>
+  </si>
+  <si>
+    <t>ljs_sedang_a</t>
+  </si>
+  <si>
+    <t>ljs_kecil_c</t>
+  </si>
+  <si>
+    <t>ljs_sedang_b</t>
+  </si>
+  <si>
+    <t>ljs_besar_a</t>
+  </si>
+  <si>
+    <t>ljs_sedang_c</t>
+  </si>
+  <si>
+    <t>ljs_besar_b,</t>
+  </si>
+  <si>
+    <t>ljs_kecil_b</t>
+  </si>
+  <si>
+    <t>ljs_besar_c</t>
+  </si>
+  <si>
+    <t>n_kecil_a,</t>
+  </si>
+  <si>
+    <t>n_sedang_a</t>
+  </si>
+  <si>
+    <t>n_kecil_c</t>
+  </si>
+  <si>
+    <t>n_sedang_b</t>
+  </si>
+  <si>
+    <t>n_besar_a</t>
+  </si>
+  <si>
+    <t>n_sedang_c</t>
+  </si>
+  <si>
+    <t>n_besar_b,</t>
+  </si>
+  <si>
+    <t>n_kecil_b</t>
+  </si>
+  <si>
+    <t>n_besar_c</t>
+  </si>
+  <si>
+    <t>n_kecil_a</t>
+  </si>
+  <si>
+    <t>kombinasi</t>
+  </si>
+  <si>
+    <t>n_besar_b</t>
+  </si>
+  <si>
+    <t>ljs_kecil_a</t>
+  </si>
+  <si>
+    <t>ljs_besar_b</t>
+  </si>
+  <si>
+    <t>wb_besar_b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +668,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -578,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -612,11 +738,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -633,18 +768,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -655,11 +785,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,8 +1835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5881121" y="831736"/>
-          <a:ext cx="611754" cy="6804"/>
+          <a:off x="1639816" y="2141320"/>
+          <a:ext cx="615877" cy="10104"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8536,56 +8693,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3969</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="473" name="Straight Connector 472">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077AF188-2625-4F31-BA81-8C8119621FBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5898357" y="661193"/>
-          <a:ext cx="613568" cy="9526"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -12084,8 +12191,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2226469" y="2102870"/>
-          <a:ext cx="603817" cy="559027"/>
+          <a:off x="12034333" y="2318111"/>
+          <a:ext cx="607940" cy="572221"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12243,8 +12350,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1626621" y="2110807"/>
-          <a:ext cx="611754" cy="6805"/>
+          <a:off x="11430362" y="2326048"/>
+          <a:ext cx="615877" cy="10103"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15293,6 +15400,1092 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>3442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19461</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176C4D92-8057-4AD1-8B03-145FB1BD28D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21618864" y="663864"/>
+          <a:ext cx="3442" cy="2578703"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>10703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E789E2E-2724-4D54-AF6A-08CA38BEC57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19219333" y="667191"/>
+          <a:ext cx="2423703" cy="2592476"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>597598</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>28223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A51318-6495-4B14-9650-17B6D69CBFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21623154" y="663222"/>
+          <a:ext cx="2464513" cy="2582334"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>602712</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239C3FB5-C516-4780-A889-C063B30D81B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22841823" y="677333"/>
+          <a:ext cx="2445288" cy="2549231"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>9621</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63085175-DAFE-4390-B38C-35879EB9B923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17982045" y="654243"/>
+          <a:ext cx="2434167" cy="2568863"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3443</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E706109-5069-47E3-AB08-D48ABD458C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17982046" y="654243"/>
+          <a:ext cx="3442" cy="2578703"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9621</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>13063</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8934AA5-97CB-47C8-95BF-68F6B031D56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25282621" y="672843"/>
+          <a:ext cx="3442" cy="2587683"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>3442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19461</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FA23EA-EFFA-4A11-BDEF-AC7BEDED8852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21863707" y="667845"/>
+          <a:ext cx="3442" cy="2625150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>10703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE189A5-E4EA-415C-A820-5E17CA734213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19425404" y="671814"/>
+          <a:ext cx="2449006" cy="2629943"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>597598</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>28223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34089E9E-5ACB-4DF9-9CA2-C4464FEA3C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21848201" y="667845"/>
+          <a:ext cx="2496143" cy="2619801"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>602712</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526A1B53-121F-49FE-9947-127C6396154B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23079522" y="681956"/>
+          <a:ext cx="2476917" cy="2584022"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>9621</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C36FFB3-F487-44D6-A80E-A3B1F7E4BF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="18185086" y="654906"/>
+          <a:ext cx="2462035" cy="2618628"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>3443</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F573DF35-701C-4E5F-873A-49F78B4C37A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18185087" y="654906"/>
+          <a:ext cx="3442" cy="2628468"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>9621</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>13063</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010D2E0D-2D08-459D-AAD7-FDFA9FAFF084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25551949" y="677466"/>
+          <a:ext cx="3442" cy="2625150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>3442</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19461</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F3B3C1-80D1-4C6F-A906-30059231AA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30447155" y="667845"/>
+          <a:ext cx="3442" cy="2625150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>10703</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC5DB41-F7D3-40DA-BE81-81074ED46735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="28008852" y="671814"/>
+          <a:ext cx="2449006" cy="2629943"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>597598</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>28223</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913DC416-9371-4465-B37E-89690540D1C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30431650" y="667845"/>
+          <a:ext cx="2496142" cy="2619801"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>602712</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>178564</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B25C1EB-482D-4870-95A9-C55B83C0207B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="31662971" y="681956"/>
+          <a:ext cx="2476916" cy="2584022"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9621</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134C2C58-0204-4953-A9FE-A36B78D9A225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="26768534" y="654906"/>
+          <a:ext cx="2462035" cy="2618628"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>3443</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E454A046-FB2B-43B4-AE06-CEC578427BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26768535" y="654906"/>
+          <a:ext cx="3442" cy="2628468"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9621</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>13063</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51389D61-AD89-46CF-B5EA-D6DE0E0457F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34135397" y="677466"/>
+          <a:ext cx="3442" cy="2625150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -17953,2390 +19146,4308 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D486DD00-954E-4321-B52C-9032EE84128C}">
-  <dimension ref="A1:AH1346"/>
+  <dimension ref="A1:BE1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG69" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AU77" sqref="AU77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="10" customWidth="1"/>
-    <col min="2" max="17" width="8.7265625" style="10"/>
-    <col min="20" max="27" width="8.7265625" style="10"/>
-    <col min="35" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="35" max="35" width="9.81640625" customWidth="1"/>
+    <col min="36" max="44" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" s="16" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="3:57" s="13" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="S1" s="20" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="S1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-    </row>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C2" s="12" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AI1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AW1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+    </row>
+    <row r="2" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="S2" s="19" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="S2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+    </row>
+    <row r="3" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="13">
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE3" s="11"/>
+    </row>
+    <row r="4" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+    </row>
+    <row r="5" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+    </row>
+    <row r="6" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+    </row>
+    <row r="7" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C7" s="12">
         <v>0</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>66.7</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>83</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>100</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
         <v>0</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <f>L8/60</f>
         <v>6.1166666666666663</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f t="shared" ref="M7:P7" si="0">M8/60</f>
         <v>10.35</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <f t="shared" si="0"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <f t="shared" si="0"/>
         <v>119.48333333333333</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="S7" s="13">
+      <c r="Q7" s="12"/>
+      <c r="S7" s="12">
         <v>0</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <f>T8/60</f>
         <v>5.9333333333333336</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <f t="shared" ref="U7" si="1">U8/60</f>
         <v>7.5666666666666664</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <f t="shared" ref="V7" si="2">V8/60</f>
         <v>8.7833333333333332</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <f t="shared" ref="W7" si="3">W8/60</f>
         <v>11.5</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="12">
         <f t="shared" ref="X7" si="4">X8/60</f>
         <v>60</v>
       </c>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C8" s="13" t="s">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+    </row>
+    <row r="8" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="10">
+      <c r="G8" s="17"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8">
         <v>367</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8">
         <v>621</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8">
         <v>1056</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8">
         <v>7169</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8">
         <v>9000</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="S8" s="10">
+      <c r="Q8" s="12"/>
+      <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8">
         <v>356</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8">
         <v>454</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8">
         <v>527</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8">
         <v>690</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8">
         <v>3600</v>
       </c>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+    </row>
+    <row r="9" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="S9" s="13" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="S9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="AA9"/>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="11" t="s">
+      <c r="X9" s="12"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+    </row>
+    <row r="10" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="S10" s="10"/>
-      <c r="AA10"/>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+    </row>
+    <row r="11" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="S11" s="19" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="S11" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="AA11"/>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+    </row>
+    <row r="12" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13" t="s">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13" t="s">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="AA12"/>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="AA13"/>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="AA14"/>
-    </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C15" s="13">
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+    </row>
+    <row r="13" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+    </row>
+    <row r="14" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+    </row>
+    <row r="15" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>64</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>70</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>80</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>100</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="AA15"/>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+    </row>
+    <row r="16" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>0</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>5</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>10</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>15</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <v>20</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>150</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="S16" s="13">
+      <c r="Q16" s="12"/>
+      <c r="S16" s="12">
         <v>0</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <v>5</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <v>10</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="12">
         <v>15</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="12">
         <v>60</v>
       </c>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="AA16"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C17" s="12" t="s">
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+    </row>
+    <row r="17" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
         <f>K16*60</f>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <f t="shared" ref="L17:P17" si="5">L16*60</f>
         <v>300</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="S17" s="13">
+      <c r="Q17" s="12"/>
+      <c r="S17" s="12">
         <f>60*S16</f>
         <v>0</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <f t="shared" ref="T17:W17" si="6">60*T16</f>
         <v>300</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12">
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="12">
         <f t="shared" si="6"/>
         <v>900</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="12">
         <f t="shared" si="6"/>
         <v>3600</v>
       </c>
-      <c r="AA17"/>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+    </row>
+    <row r="18" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="S18" s="10"/>
-      <c r="AA18"/>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="AD18" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE18" s="21"/>
+    </row>
+    <row r="19" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="S19" s="12" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="S19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13" t="s">
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AD19" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE19" s="21"/>
+    </row>
+    <row r="20" spans="3:57" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13" t="s">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="13" t="s">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="T20" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13" t="s">
+      <c r="U20" s="12"/>
+      <c r="V20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13" t="s">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20"/>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21"/>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C22" s="10">
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+    </row>
+    <row r="21" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+    </row>
+    <row r="22" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>58</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>64</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>70</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>80</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>90</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>100</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22"/>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23"/>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AK22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX22" s="11"/>
+    </row>
+    <row r="23" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+    </row>
+    <row r="24" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <v>0</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="12">
         <v>4.5</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="12">
         <v>9</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="12">
         <v>18</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="12">
         <v>27</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="12">
         <v>150</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="S24" s="10">
+      <c r="Q24" s="12"/>
+      <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="12">
         <v>3</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="12">
         <v>5</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="12">
         <v>10</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="12">
         <v>15</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="12">
         <v>20</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y24" s="12">
         <v>60</v>
       </c>
-      <c r="Z24" s="13"/>
-      <c r="AA24"/>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C25" s="12" t="s">
+      <c r="Z24" s="12"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+    </row>
+    <row r="25" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
         <f>K24*60</f>
         <v>0</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <f t="shared" ref="L25" si="7">L24*60</f>
         <v>270</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <f t="shared" ref="M25" si="8">M24*60</f>
         <v>540</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="12">
         <f t="shared" ref="N25" si="9">N24*60</f>
         <v>1080</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="12">
         <f t="shared" ref="O25" si="10">O24*60</f>
         <v>1620</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="12">
         <f t="shared" ref="P25" si="11">P24*60</f>
         <v>9000</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="S25" s="13">
+      <c r="Q25" s="12"/>
+      <c r="S25" s="12">
         <f>60*S24</f>
         <v>0</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="12">
         <f t="shared" ref="T25:Y25" si="12">60*T24</f>
         <v>180</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="12">
         <f t="shared" si="12"/>
         <v>300</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <f t="shared" si="12"/>
         <v>600</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="12">
         <f t="shared" si="12"/>
         <v>900</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="12">
         <f t="shared" si="12"/>
         <v>1200</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Y25" s="12">
         <f t="shared" si="12"/>
         <v>3600</v>
       </c>
-      <c r="Z25" s="13"/>
-      <c r="AA25"/>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D26" s="13" t="s">
+      <c r="Z25" s="12"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+    </row>
+    <row r="26" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D26" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="S26" s="10"/>
-      <c r="AA26"/>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="11" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+    </row>
+    <row r="27" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="S27" s="12" t="s">
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="S27" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27"/>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13" t="s">
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+    </row>
+    <row r="28" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13" t="s">
+      <c r="N28" s="12"/>
+      <c r="O28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="13" t="s">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="T28" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13" t="s">
+      <c r="U28" s="12"/>
+      <c r="V28" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13" t="s">
+      <c r="W28" s="12"/>
+      <c r="X28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28"/>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29"/>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C30" s="10">
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+    </row>
+    <row r="29" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+    </row>
+    <row r="30" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>58</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>64</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>70</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>80</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>90</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>100</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30"/>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31"/>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.35">
-      <c r="K32" s="13">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+    </row>
+    <row r="31" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+    </row>
+    <row r="32" spans="3:57" x14ac:dyDescent="0.35">
+      <c r="K32" s="12">
         <v>0</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12">
         <v>10</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13">
+      <c r="N32" s="12"/>
+      <c r="O32" s="12">
         <v>27</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="12">
         <v>150</v>
       </c>
-      <c r="Q32" s="13"/>
-      <c r="S32" s="10">
+      <c r="Q32" s="12"/>
+      <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="12">
         <v>3</v>
       </c>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13">
+      <c r="U32" s="12"/>
+      <c r="V32" s="12">
         <v>10</v>
       </c>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13">
+      <c r="W32" s="12"/>
+      <c r="X32" s="12">
         <v>20</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="12">
         <v>60</v>
       </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C33" s="12" t="s">
+      <c r="Z32" s="12"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C33" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
         <f>K32*60</f>
         <v>0</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13">
+      <c r="L33" s="12"/>
+      <c r="M33" s="12">
         <f t="shared" ref="M33" si="13">M32*60</f>
         <v>600</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13">
+      <c r="N33" s="12"/>
+      <c r="O33" s="12">
         <f t="shared" ref="O33" si="14">O32*60</f>
         <v>1620</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="12">
         <f t="shared" ref="P33" si="15">P32*60</f>
         <v>9000</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="S33" s="13">
+      <c r="Q33" s="12"/>
+      <c r="S33" s="12">
         <f>60*S32</f>
         <v>0</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="12">
         <f t="shared" ref="T33" si="16">60*T32</f>
         <v>180</v>
       </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13">
+      <c r="U33" s="12"/>
+      <c r="V33" s="12">
         <f t="shared" ref="V33" si="17">60*V32</f>
         <v>600</v>
       </c>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13">
+      <c r="W33" s="12"/>
+      <c r="X33" s="12">
         <f t="shared" ref="X33" si="18">60*X32</f>
         <v>1200</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="12">
         <f t="shared" ref="Y33" si="19">60*Y32</f>
         <v>3600</v>
       </c>
-      <c r="Z33" s="13"/>
-      <c r="AA33"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D34" s="13" t="s">
+      <c r="Z33" s="12"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="D34" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="S34" s="10"/>
-      <c r="AA34"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="11" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="S35" s="12" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="S35" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="AA35"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13" t="s">
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13" t="s">
+      <c r="N36" s="12"/>
+      <c r="O36" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="13" t="s">
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="T36" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13" t="s">
+      <c r="U36" s="12"/>
+      <c r="V36" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13" t="s">
+      <c r="W36" s="12"/>
+      <c r="X36" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Y36" s="13"/>
-      <c r="AA36"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="Y36" s="12"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="AA37"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="C38" s="10">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="AK37" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX37" s="21"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>58</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>64</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>70</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>80</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>90</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>100</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="AA38"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="AA39"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="C40" s="12" t="s">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="AK38" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX38" s="21"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="C40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <v>0</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13">
+      <c r="L40" s="12"/>
+      <c r="M40" s="12">
         <v>9</v>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13">
+      <c r="N40" s="12"/>
+      <c r="O40" s="12">
         <v>27</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="12">
         <v>150</v>
       </c>
-      <c r="Q40" s="13"/>
-      <c r="S40" s="10">
+      <c r="Q40" s="12"/>
+      <c r="S40">
         <v>0</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="12">
         <v>3</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="12">
         <v>5</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="12">
         <v>10</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="12">
         <v>15</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="12">
         <v>20</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="Y40" s="12">
         <v>60</v>
       </c>
-      <c r="AA40"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="D41" s="13" t="s">
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="D41" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
         <f>K40*60</f>
         <v>0</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13">
+      <c r="L41" s="12"/>
+      <c r="M41" s="12">
         <f t="shared" ref="M41" si="20">M40*60</f>
         <v>540</v>
       </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13">
+      <c r="N41" s="12"/>
+      <c r="O41" s="12">
         <f t="shared" ref="O41" si="21">O40*60</f>
         <v>1620</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="12">
         <f t="shared" ref="P41" si="22">P40*60</f>
         <v>9000</v>
       </c>
-      <c r="Q41" s="13"/>
-      <c r="S41" s="13">
+      <c r="Q41" s="12"/>
+      <c r="S41" s="12">
         <f>60*S40</f>
         <v>0</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="12">
         <f t="shared" ref="T41" si="23">60*T40</f>
         <v>180</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="12">
         <f t="shared" ref="U41" si="24">60*U40</f>
         <v>300</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="12">
         <f t="shared" ref="V41" si="25">60*V40</f>
         <v>600</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="12">
         <f t="shared" ref="W41" si="26">60*W40</f>
         <v>900</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="12">
         <f t="shared" ref="X41" si="27">60*X40</f>
         <v>1200</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Y41" s="12">
         <f t="shared" ref="Y41" si="28">60*Y40</f>
         <v>3600</v>
       </c>
-      <c r="AA41"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A42" s="13">
+      <c r="AM41" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN41" s="26"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A42" s="12">
         <v>0</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="S42" s="10"/>
-      <c r="AA42"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="11" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="27"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="S43" s="10"/>
-      <c r="AA43"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="AI43" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ43" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK43" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL43" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM43" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN43" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO43" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP43" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ43" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR43" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="L44" s="13" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="L44" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13" t="s">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13" t="s">
+      <c r="O44" s="12"/>
+      <c r="P44" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Q44" s="13"/>
-      <c r="S44" s="10"/>
-      <c r="AA44"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C45" s="10">
+      <c r="Q44" s="12"/>
+      <c r="AI44" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="24">
         <v>0</v>
       </c>
-      <c r="D45" s="13">
+      <c r="AK44" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="24">
+        <v>454</v>
+      </c>
+      <c r="AM44" s="24">
+        <v>356</v>
+      </c>
+      <c r="AN44" s="24">
+        <f>AL44</f>
+        <v>454</v>
+      </c>
+      <c r="AO44" s="24">
+        <v>527</v>
+      </c>
+      <c r="AP44" s="24">
+        <f>AN44</f>
+        <v>454</v>
+      </c>
+      <c r="AQ44" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR44" s="24">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
         <v>58</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>64</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>70</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>80</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
         <v>90</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>100</v>
       </c>
-      <c r="J45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="S45" s="10"/>
-      <c r="AA45"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="S46" s="10"/>
-      <c r="AA46"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C47" s="12" t="s">
+      <c r="J45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="AI45" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ45" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM45" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="24">
+        <f>AL45</f>
+        <v>600</v>
+      </c>
+      <c r="AO45" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP45" s="24">
+        <f>AN45</f>
+        <v>600</v>
+      </c>
+      <c r="AQ45" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR45" s="24">
+        <f>AQ45</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="AI46" s="24">
+        <v>3</v>
+      </c>
+      <c r="AJ46" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="24">
+        <v>400</v>
+      </c>
+      <c r="AM46" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="24">
+        <f t="shared" ref="AN46:AP53" si="29">AL46</f>
+        <v>400</v>
+      </c>
+      <c r="AO46" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP46" s="24">
+        <f t="shared" si="29"/>
+        <v>400</v>
+      </c>
+      <c r="AQ46" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR46" s="24">
+        <f t="shared" ref="AR46:AR52" si="30">AQ46</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="S47" s="10"/>
-      <c r="AA47"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="AI47" s="24">
+        <v>4</v>
+      </c>
+      <c r="AJ47" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="24">
+        <v>300</v>
+      </c>
+      <c r="AM47" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="24">
+        <f t="shared" si="29"/>
+        <v>300</v>
+      </c>
+      <c r="AO47" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP47" s="24">
+        <f t="shared" si="29"/>
+        <v>300</v>
+      </c>
+      <c r="AQ47" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR47" s="24">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="10">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="12">
         <v>3</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="12">
         <v>4.5</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="12">
         <v>9</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="12">
         <v>18</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="12">
         <v>27</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="10">
+      <c r="AI48" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="24">
         <v>0</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="10">
+      <c r="AK48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="24">
+        <v>500</v>
+      </c>
+      <c r="AM48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="24">
+        <f t="shared" si="29"/>
+        <v>500</v>
+      </c>
+      <c r="AO48" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP48" s="24">
+        <f t="shared" si="29"/>
+        <v>500</v>
+      </c>
+      <c r="AQ48" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR48" s="24">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49">
         <f>K48*60</f>
         <v>0</v>
       </c>
-      <c r="L49" s="10">
-        <f t="shared" ref="L49:Q49" si="29">L48*60</f>
+      <c r="L49">
+        <f t="shared" ref="L49:Q49" si="31">L48*60</f>
         <v>180</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49">
+        <f t="shared" si="31"/>
+        <v>270</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="31"/>
+        <v>540</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="31"/>
+        <v>1080</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="31"/>
+        <v>1620</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="31"/>
+        <v>9000</v>
+      </c>
+      <c r="AI49" s="24">
+        <v>6</v>
+      </c>
+      <c r="AJ49" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="24">
+        <v>400</v>
+      </c>
+      <c r="AM49" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="24">
         <f t="shared" si="29"/>
-        <v>270</v>
-      </c>
-      <c r="N49" s="10">
+        <v>400</v>
+      </c>
+      <c r="AO49" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP49" s="24">
         <f t="shared" si="29"/>
-        <v>540</v>
-      </c>
-      <c r="O49" s="10">
+        <v>400</v>
+      </c>
+      <c r="AQ49" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR49" s="24">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="AI50" s="24">
+        <v>7</v>
+      </c>
+      <c r="AJ50" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM50" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="24">
         <f t="shared" si="29"/>
-        <v>1080</v>
-      </c>
-      <c r="P49" s="10">
+        <v>600</v>
+      </c>
+      <c r="AO50" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP50" s="24">
         <f t="shared" si="29"/>
-        <v>1620</v>
-      </c>
-      <c r="Q49" s="10">
+        <v>600</v>
+      </c>
+      <c r="AQ50" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR50" s="24">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="AI51" s="24">
+        <v>8</v>
+      </c>
+      <c r="AJ51" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="24">
+        <v>500</v>
+      </c>
+      <c r="AM51" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="24">
         <f t="shared" si="29"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AO51" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP51" s="24">
+        <f t="shared" si="29"/>
+        <v>500</v>
+      </c>
+      <c r="AQ51" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR51" s="24">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>0</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>60</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>70</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="12">
         <v>80</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <v>100</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13" t="s">
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13" t="s">
+      <c r="L52" s="12"/>
+      <c r="M52" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13" t="s">
+      <c r="N52" s="12"/>
+      <c r="O52" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C54" s="12" t="s">
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="AI52" s="24">
+        <v>9</v>
+      </c>
+      <c r="AJ52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="24">
+        <v>400</v>
+      </c>
+      <c r="AM52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="24">
+        <f t="shared" si="29"/>
+        <v>400</v>
+      </c>
+      <c r="AO52" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP52" s="24">
+        <f t="shared" si="29"/>
+        <v>400</v>
+      </c>
+      <c r="AQ52" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR52" s="24">
+        <f t="shared" si="30"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="AI53" s="24">
+        <v>10</v>
+      </c>
+      <c r="AJ53" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="24">
+        <v>400</v>
+      </c>
+      <c r="AM53" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="24">
+        <f t="shared" si="29"/>
+        <v>400</v>
+      </c>
+      <c r="AO53" s="24">
+        <v>700</v>
+      </c>
+      <c r="AP53" s="24">
+        <f t="shared" si="29"/>
+        <v>400</v>
+      </c>
+      <c r="AQ53" s="24">
+        <v>700</v>
+      </c>
+      <c r="AR53" s="24">
+        <f>AQ53</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C54" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13">
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="AM55" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN55" s="26"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12">
         <v>0</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="12">
         <v>4.5</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="12">
         <v>9</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="12">
         <v>18</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="12">
         <v>150</v>
       </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="10">
+      <c r="Q56" s="12"/>
+      <c r="AM56" s="27"/>
+      <c r="AN56" s="27"/>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>0</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12">
         <f>K56*60</f>
         <v>0</v>
       </c>
-      <c r="L57" s="13">
-        <f t="shared" ref="L57" si="30">L56*60</f>
+      <c r="L57" s="12">
+        <f t="shared" ref="L57" si="32">L56*60</f>
         <v>270</v>
       </c>
-      <c r="M57" s="13">
-        <f t="shared" ref="M57" si="31">M56*60</f>
+      <c r="M57" s="12">
+        <f t="shared" ref="M57" si="33">M56*60</f>
         <v>540</v>
       </c>
-      <c r="N57" s="13">
-        <f t="shared" ref="N57" si="32">N56*60</f>
+      <c r="N57" s="12">
+        <f t="shared" ref="N57" si="34">N56*60</f>
         <v>1080</v>
       </c>
-      <c r="O57" s="13">
-        <f t="shared" ref="O57" si="33">O56*60</f>
+      <c r="O57" s="12">
+        <f t="shared" ref="O57" si="35">O56*60</f>
         <v>9000</v>
       </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C59" s="10">
+      <c r="Q57" s="12"/>
+      <c r="AI57" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ57" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK57" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL57" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM57" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO57" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP57" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ57" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR57" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="AI58" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="24">
         <v>0</v>
       </c>
-      <c r="D59" s="13">
+      <c r="AK58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="24">
+        <v>621</v>
+      </c>
+      <c r="AM58" s="24">
+        <v>367</v>
+      </c>
+      <c r="AN58" s="24">
+        <f>AL58</f>
+        <v>621</v>
+      </c>
+      <c r="AO58" s="24">
+        <v>1056</v>
+      </c>
+      <c r="AP58" s="24">
+        <f>AN58</f>
+        <v>621</v>
+      </c>
+      <c r="AQ58" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR58" s="24">
+        <f>AQ58</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12">
         <v>50</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="12">
         <v>60</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="12">
         <v>70</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>80</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="12">
         <v>90</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <v>100</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="11" t="s">
+      <c r="J59" s="12"/>
+      <c r="K59" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="L60" s="13" t="s">
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="AI59" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM59" s="24">
+        <v>300</v>
+      </c>
+      <c r="AN59" s="24">
+        <f>AL59</f>
+        <v>600</v>
+      </c>
+      <c r="AO59" s="24">
+        <v>900</v>
+      </c>
+      <c r="AP59" s="24">
+        <f>AN59</f>
+        <v>600</v>
+      </c>
+      <c r="AQ59" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR59" s="24">
+        <f t="shared" ref="AR59:AR67" si="36">AQ59</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="L60" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13" t="s">
+      <c r="M60" s="12"/>
+      <c r="N60" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13" t="s">
+      <c r="O60" s="12"/>
+      <c r="P60" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C62" s="12" t="s">
+      <c r="Q60" s="12"/>
+      <c r="AI60" s="24">
+        <v>3</v>
+      </c>
+      <c r="AJ60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM60" s="24">
+        <f t="shared" ref="AM60:AM67" si="37">AJ60</f>
+        <v>0</v>
+      </c>
+      <c r="AN60" s="24">
+        <f t="shared" ref="AN60:AP67" si="38">AL60</f>
+        <v>600</v>
+      </c>
+      <c r="AO60" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AP60" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AQ60" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR60" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="AI61" s="24">
+        <v>4</v>
+      </c>
+      <c r="AJ61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="24">
+        <v>500</v>
+      </c>
+      <c r="AM61" s="24">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN61" s="24">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="AO61" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AP61" s="24">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="AQ61" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR61" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C62" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D63" s="13" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="AI62" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="24">
+        <v>700</v>
+      </c>
+      <c r="AM62" s="24">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="24">
+        <f t="shared" si="38"/>
+        <v>700</v>
+      </c>
+      <c r="AO62" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AP62" s="24">
+        <f t="shared" si="38"/>
+        <v>700</v>
+      </c>
+      <c r="AQ62" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR62" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D63" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13" t="s">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="10">
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="AI63" s="24">
+        <v>6</v>
+      </c>
+      <c r="AJ63" s="24">
         <v>0</v>
       </c>
-      <c r="L64" s="13">
+      <c r="AK63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM63" s="24">
+        <v>300</v>
+      </c>
+      <c r="AN63" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AO63" s="24">
+        <v>900</v>
+      </c>
+      <c r="AP63" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AQ63" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR63" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" s="12">
         <v>3</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="12">
         <v>4.5</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="12">
         <v>9</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="12">
         <v>18</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="12">
         <v>27</v>
       </c>
-      <c r="Q64" s="13">
+      <c r="Q64" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="10">
+      <c r="AI64" s="24">
+        <v>7</v>
+      </c>
+      <c r="AJ64" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM64" s="24">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN64" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AO64" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AP64" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AQ64" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR64" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="65" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65">
         <f>K64*60</f>
         <v>0</v>
       </c>
-      <c r="L65" s="10">
-        <f t="shared" ref="L65" si="34">L64*60</f>
+      <c r="L65">
+        <f t="shared" ref="L65" si="39">L64*60</f>
         <v>180</v>
       </c>
-      <c r="M65" s="10">
-        <f t="shared" ref="M65" si="35">M64*60</f>
+      <c r="M65">
+        <f t="shared" ref="M65" si="40">M64*60</f>
         <v>270</v>
       </c>
-      <c r="N65" s="10">
-        <f t="shared" ref="N65" si="36">N64*60</f>
+      <c r="N65">
+        <f t="shared" ref="N65" si="41">N64*60</f>
         <v>540</v>
       </c>
-      <c r="O65" s="10">
-        <f t="shared" ref="O65" si="37">O64*60</f>
+      <c r="O65">
+        <f t="shared" ref="O65" si="42">O64*60</f>
         <v>1080</v>
       </c>
-      <c r="P65" s="10">
-        <f t="shared" ref="P65" si="38">P64*60</f>
+      <c r="P65">
+        <f t="shared" ref="P65" si="43">P64*60</f>
         <v>1620</v>
       </c>
-      <c r="Q65" s="10">
-        <f t="shared" ref="Q65" si="39">Q64*60</f>
+      <c r="Q65">
+        <f t="shared" ref="Q65" si="44">Q64*60</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C67" s="10">
+      <c r="AI65" s="24">
+        <v>8</v>
+      </c>
+      <c r="AJ65" s="24">
         <v>0</v>
       </c>
-      <c r="D67" s="13">
+      <c r="AK65" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM65" s="24">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN65" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AO65" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AP65" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AQ65" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR65" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="66" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="AI66" s="24">
+        <v>9</v>
+      </c>
+      <c r="AJ66" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="24">
+        <v>500</v>
+      </c>
+      <c r="AM66" s="24">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="24">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="AO66" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AP66" s="24">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="AQ66" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR66" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="67" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12">
         <v>50</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <v>60</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="12">
         <v>70</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <v>80</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="12">
         <v>90</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>100</v>
       </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="11" t="s">
+      <c r="J67" s="12"/>
+      <c r="K67" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="L68" s="13" t="s">
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="AI67" s="24">
+        <v>10</v>
+      </c>
+      <c r="AJ67" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="24">
+        <v>600</v>
+      </c>
+      <c r="AM67" s="24">
+        <v>300</v>
+      </c>
+      <c r="AN67" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AO67" s="24">
+        <v>900</v>
+      </c>
+      <c r="AP67" s="24">
+        <f t="shared" si="38"/>
+        <v>600</v>
+      </c>
+      <c r="AQ67" s="24">
+        <v>7500</v>
+      </c>
+      <c r="AR67" s="24">
+        <f t="shared" si="36"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="68" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="L68" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13" t="s">
+      <c r="M68" s="12"/>
+      <c r="N68" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13" t="s">
+      <c r="O68" s="12"/>
+      <c r="P68" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C70" s="12" t="s">
+      <c r="Q68" s="12"/>
+    </row>
+    <row r="69" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="AM69" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN69" s="26"/>
+    </row>
+    <row r="70" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C70" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D71" s="13" t="s">
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="AM70" s="27"/>
+      <c r="AN70" s="27"/>
+    </row>
+    <row r="71" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D71" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13" t="s">
+      <c r="E71" s="12"/>
+      <c r="F71" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13" t="s">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="10">
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="AI71" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ71" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK71" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL71" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM71" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN71" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO71" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP71" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ71" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR71" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72">
         <v>0</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="12">
         <v>3</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="12">
         <v>4.5</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N72" s="12">
         <v>9</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O72" s="12">
         <v>18</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P72" s="12">
         <v>27</v>
       </c>
-      <c r="Q72" s="13">
+      <c r="Q72" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="10">
+      <c r="AI72" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="24">
+        <v>83</v>
+      </c>
+      <c r="AM72" s="24">
+        <v>66.7</v>
+      </c>
+      <c r="AN72" s="24">
+        <f>AL72</f>
+        <v>83</v>
+      </c>
+      <c r="AO72" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP72" s="24">
+        <f>AN72</f>
+        <v>83</v>
+      </c>
+      <c r="AQ72" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR72" s="24">
+        <f>AQ72</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73">
         <f>K72*60</f>
         <v>0</v>
       </c>
-      <c r="L73" s="10">
-        <f t="shared" ref="L73" si="40">L72*60</f>
+      <c r="L73">
+        <f t="shared" ref="L73" si="45">L72*60</f>
         <v>180</v>
       </c>
-      <c r="M73" s="10">
-        <f t="shared" ref="M73" si="41">M72*60</f>
+      <c r="M73">
+        <f t="shared" ref="M73" si="46">M72*60</f>
         <v>270</v>
       </c>
-      <c r="N73" s="10">
-        <f t="shared" ref="N73" si="42">N72*60</f>
+      <c r="N73">
+        <f t="shared" ref="N73" si="47">N72*60</f>
         <v>540</v>
       </c>
-      <c r="O73" s="10">
-        <f t="shared" ref="O73" si="43">O72*60</f>
+      <c r="O73">
+        <f t="shared" ref="O73" si="48">O72*60</f>
         <v>1080</v>
       </c>
-      <c r="P73" s="10">
-        <f t="shared" ref="P73" si="44">P72*60</f>
+      <c r="P73">
+        <f t="shared" ref="P73" si="49">P72*60</f>
         <v>1620</v>
       </c>
-      <c r="Q73" s="10">
-        <f t="shared" ref="Q73" si="45">Q72*60</f>
+      <c r="Q73">
+        <f t="shared" ref="Q73" si="50">Q72*60</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C75" s="10">
+      <c r="AI73" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ73" s="24">
         <v>0</v>
       </c>
-      <c r="D75" s="13">
+      <c r="AK73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="24">
+        <v>70</v>
+      </c>
+      <c r="AM73" s="24">
+        <v>64</v>
+      </c>
+      <c r="AN73" s="24">
+        <f>AL73</f>
+        <v>70</v>
+      </c>
+      <c r="AO73" s="24">
+        <v>80</v>
+      </c>
+      <c r="AP73" s="24">
+        <f>AN73</f>
+        <v>70</v>
+      </c>
+      <c r="AQ73" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR73" s="24">
+        <f t="shared" ref="AR73:AR81" si="51">AQ73</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="AI74" s="24">
+        <v>3</v>
+      </c>
+      <c r="AJ74" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="24">
+        <v>70</v>
+      </c>
+      <c r="AM74" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="24">
+        <f t="shared" ref="AN74:AP81" si="52">AL74</f>
+        <v>70</v>
+      </c>
+      <c r="AO74" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP74" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AQ74" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR74" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12">
         <v>50</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="12">
         <v>60</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="12">
         <v>70</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="12">
         <v>80</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="12">
         <v>90</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="12">
         <v>100</v>
       </c>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C77" s="12" t="s">
+      <c r="J75" s="12"/>
+      <c r="AI75" s="24">
+        <v>4</v>
+      </c>
+      <c r="AJ75" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="24">
+        <v>75</v>
+      </c>
+      <c r="AM75" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="24">
+        <f t="shared" si="52"/>
+        <v>75</v>
+      </c>
+      <c r="AO75" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP75" s="24">
+        <f t="shared" si="52"/>
+        <v>75</v>
+      </c>
+      <c r="AQ75" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR75" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="AI76" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ76" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="24">
+        <v>80</v>
+      </c>
+      <c r="AM76" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="24">
+        <f t="shared" si="52"/>
+        <v>80</v>
+      </c>
+      <c r="AO76" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP76" s="24">
+        <f t="shared" si="52"/>
+        <v>80</v>
+      </c>
+      <c r="AQ76" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR76" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C77" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-    </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D78" s="13" t="s">
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="AI77" s="24">
+        <v>6</v>
+      </c>
+      <c r="AJ77" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="24">
+        <v>70</v>
+      </c>
+      <c r="AM77" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AO77" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP77" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AQ77" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR77" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D78" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13" t="s">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13" t="s">
+      <c r="G78" s="12"/>
+      <c r="H78" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-    </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C82" s="10">
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="AI78" s="24">
+        <v>7</v>
+      </c>
+      <c r="AJ78" s="24">
         <v>0</v>
       </c>
-      <c r="D82" s="13">
+      <c r="AK78" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="24">
+        <v>70</v>
+      </c>
+      <c r="AM78" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AO78" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP78" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AQ78" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR78" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="AI79" s="24">
+        <v>8</v>
+      </c>
+      <c r="AJ79" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="24">
+        <v>70</v>
+      </c>
+      <c r="AM79" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AO79" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP79" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AQ79" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR79" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="AI80" s="24">
+        <v>9</v>
+      </c>
+      <c r="AJ80" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="24">
+        <v>70</v>
+      </c>
+      <c r="AM80" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AO80" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP80" s="24">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
+      <c r="AQ80" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR80" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="AI81" s="24">
+        <v>10</v>
+      </c>
+      <c r="AJ81" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="24">
+        <v>75</v>
+      </c>
+      <c r="AM81" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="24">
+        <f t="shared" si="52"/>
+        <v>75</v>
+      </c>
+      <c r="AO81" s="24">
+        <v>100</v>
+      </c>
+      <c r="AP81" s="24">
+        <f t="shared" si="52"/>
+        <v>75</v>
+      </c>
+      <c r="AQ81" s="24">
+        <v>100</v>
+      </c>
+      <c r="AR81" s="24">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12">
         <v>50</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="12">
         <v>60</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="12">
         <v>70</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="12">
         <v>80</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="12">
         <v>90</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="12">
         <v>100</v>
       </c>
-      <c r="J82" s="13"/>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
     </row>
     <row r="949" spans="20:27" x14ac:dyDescent="0.35">
-      <c r="T949" s="15"/>
-      <c r="U949" s="15"/>
-      <c r="V949" s="15"/>
-      <c r="W949" s="15"/>
-      <c r="X949" s="15"/>
-      <c r="Y949" s="15"/>
-      <c r="Z949" s="15"/>
+      <c r="T949" s="2"/>
+      <c r="U949" s="2"/>
+      <c r="V949" s="2"/>
+      <c r="W949" s="2"/>
+      <c r="X949" s="2"/>
+      <c r="Y949" s="2"/>
+      <c r="Z949" s="2"/>
     </row>
     <row r="958" spans="20:27" x14ac:dyDescent="0.35">
-      <c r="AA958" s="15"/>
-    </row>
-    <row r="976" spans="20:27" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="T976" s="10"/>
-      <c r="U976" s="10"/>
-      <c r="V976" s="10"/>
-      <c r="W976" s="10"/>
-      <c r="X976" s="10"/>
-      <c r="Y976" s="10"/>
-      <c r="Z976" s="10"/>
-      <c r="AA976" s="10"/>
+      <c r="AA958" s="2"/>
+    </row>
+    <row r="976" spans="20:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T976"/>
+      <c r="U976"/>
+      <c r="V976"/>
+      <c r="W976"/>
+      <c r="X976"/>
+      <c r="Y976"/>
+      <c r="Z976"/>
+      <c r="AA976"/>
     </row>
     <row r="1319" spans="20:27" x14ac:dyDescent="0.35">
-      <c r="T1319" s="15"/>
-      <c r="U1319" s="15"/>
-      <c r="V1319" s="15"/>
-      <c r="W1319" s="15"/>
-      <c r="X1319" s="15"/>
-      <c r="Y1319" s="15"/>
-      <c r="Z1319" s="15"/>
+      <c r="T1319" s="2"/>
+      <c r="U1319" s="2"/>
+      <c r="V1319" s="2"/>
+      <c r="W1319" s="2"/>
+      <c r="X1319" s="2"/>
+      <c r="Y1319" s="2"/>
+      <c r="Z1319" s="2"/>
     </row>
     <row r="1328" spans="20:27" x14ac:dyDescent="0.35">
-      <c r="AA1328" s="15"/>
-    </row>
-    <row r="1346" spans="20:27" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="T1346" s="10"/>
-      <c r="U1346" s="10"/>
-      <c r="V1346" s="10"/>
-      <c r="W1346" s="10"/>
-      <c r="X1346" s="10"/>
-      <c r="Y1346" s="10"/>
-      <c r="Z1346" s="10"/>
-      <c r="AA1346" s="10"/>
+      <c r="AA1328" s="2"/>
+    </row>
+    <row r="1346" spans="20:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T1346"/>
+      <c r="U1346"/>
+      <c r="V1346"/>
+      <c r="W1346"/>
+      <c r="X1346"/>
+      <c r="Y1346"/>
+      <c r="Z1346"/>
+      <c r="AA1346"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="46">
+    <mergeCell ref="AM55:AN56"/>
+    <mergeCell ref="AM69:AN70"/>
+    <mergeCell ref="AU37:AV37"/>
+    <mergeCell ref="AW37:AX37"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AW38:AX38"/>
+    <mergeCell ref="AM41:AN42"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AO37:AP37"/>
+    <mergeCell ref="AQ37:AR37"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BD18:BE18"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="AP20:AS21"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AI1:AL2"/>
+    <mergeCell ref="AW1:AZ2"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K67:Q67"/>
     <mergeCell ref="K51:Q51"/>
     <mergeCell ref="C10:I10"/>
@@ -20347,9 +23458,6 @@
     <mergeCell ref="K27:Q27"/>
     <mergeCell ref="K35:Q35"/>
     <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:Q2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
